--- a/biology/Botanique/Pomme_de_reinette_et_pomme_d'api/Pomme_de_reinette_et_pomme_d'api.xlsx
+++ b/biology/Botanique/Pomme_de_reinette_et_pomme_d'api/Pomme_de_reinette_et_pomme_d'api.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pomme_de_reinette_et_pomme_d%27api</t>
+          <t>Pomme_de_reinette_et_pomme_d'api</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Pomme de reinette et pomme d'api, dans deux dessins botaniques.
-Pomme de reinette et pomme d'api est une célèbre comptine française[1]. Elle a pris son nom d'un ancien cultivar, la pomme d'api[1] (dont, souvent, une face est rouge vif et l'autre jaune/verte[2]) citée dans la chanson.
+Pomme de reinette et pomme d'api est une célèbre comptine française. Elle a pris son nom d'un ancien cultivar, la pomme d'api (dont, souvent, une face est rouge vif et l'autre jaune/verte) citée dans la chanson.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pomme_de_reinette_et_pomme_d%27api</t>
+          <t>Pomme_de_reinette_et_pomme_d'api</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Paroles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le texte de la comptine, en treize vers, sauf variantes, est le suivant :
 « C'est à la halle
@@ -530,7 +544,7 @@
 D'api d'api gris.
 Cache ton poing derrière ton dos
 Ou je te donne un coup de marteau ! »
-On compte parfois quelques simplifications, comme la substitution du vers « D'api d'api rouge  », de difficile intelligibilité par les enfants, avec le plus simple mais assonant « Tapis, tapis rouge » ou « Petit tapis rouge », tous les deux, néanmoins, ayant un sens, dans une lectio facilior opérée par les petits chanteurs[1].
+On compte parfois quelques simplifications, comme la substitution du vers « D'api d'api rouge  », de difficile intelligibilité par les enfants, avec le plus simple mais assonant « Tapis, tapis rouge » ou « Petit tapis rouge », tous les deux, néanmoins, ayant un sens, dans une lectio facilior opérée par les petits chanteurs.
 </t>
         </is>
       </c>
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pomme_de_reinette_et_pomme_d%27api</t>
+          <t>Pomme_de_reinette_et_pomme_d'api</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,15 +573,17 @@
           <t>Origine et pérennité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De la chanson ont dérivé plusieurs comptines françaises ainsi qu'une comptine italienne, où le refrain, par un procédé de corruption de l'archétype original, est devenu un non-sens[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la chanson ont dérivé plusieurs comptines françaises ainsi qu'une comptine italienne, où le refrain, par un procédé de corruption de l'archétype original, est devenu un non-sens :
 « Ponte ponente ponte pì
 Tappetà Perugia
 Ponte ponente ponte pì
 Tappetà perì. »
-Dont seulement quatre mots sont intelligibles: ponte (= « pont »), ponente (= « ponant »), Perugia (= « Pérouse »), perì (« il périt », au passé simple)[1].
-On en trouve un équivalent en Espagne:[3] "Pompanate putapí, tape tape nuse, Pompanate putapí, tape tape pi" où aucun mot n'est intelligible. Il est traditionnellement chanté sur une mélodie semblable à la version française mais avec la deuxième mesure à 3 temps.
+Dont seulement quatre mots sont intelligibles: ponte (= « pont »), ponente (= « ponant »), Perugia (= « Pérouse »), perì (« il périt », au passé simple).
+On en trouve un équivalent en Espagne: "Pompanate putapí, tape tape nuse, Pompanate putapí, tape tape pi" où aucun mot n'est intelligible. Il est traditionnellement chanté sur une mélodie semblable à la version française mais avec la deuxième mesure à 3 temps.
 </t>
         </is>
       </c>
